--- a/Project/Letcode_Report.xlsx
+++ b/Project/Letcode_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Data\excel file data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4892AE90-1723-405B-A41E-096BC994C9CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27A84B0-4E38-47E5-9988-125A03D2451B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="315" windowWidth="19815" windowHeight="9705" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="1011">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -2808,6 +2808,9 @@
 2.ESC key should be working</t>
   </si>
   <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>Low</t>
   </si>
   <si>
@@ -2827,6 +2830,318 @@
   </si>
   <si>
     <t>ESC and close functionality should be working</t>
+  </si>
+  <si>
+    <t>1.Chnage color</t>
+  </si>
+  <si>
+    <t>Ui should be proper</t>
+  </si>
+  <si>
+    <t>Both form color is mixed</t>
+  </si>
+  <si>
+    <t>1.reopen forgot password page
+2.clear text in input field</t>
+  </si>
+  <si>
+    <t>Clear text in input fields when reopen this form</t>
+  </si>
+  <si>
+    <t>Clear text is not working in input fields</t>
+  </si>
+  <si>
+    <t>1.Do hover effect activate</t>
+  </si>
+  <si>
+    <t>Generate hover effect when cursor move on that</t>
+  </si>
+  <si>
+    <t>not generate hover effect</t>
+  </si>
+  <si>
+    <t>1.put proper code and logic for get axact location</t>
+  </si>
+  <si>
+    <t>functionality</t>
+  </si>
+  <si>
+    <t>Get location should be proper finding</t>
+  </si>
+  <si>
+    <t>Not getting location</t>
+  </si>
+  <si>
+    <t>1.Find proper color</t>
+  </si>
+  <si>
+    <t>Finding exact color which user select</t>
+  </si>
+  <si>
+    <t>Not finding color</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>1.Display how tall &amp; fat</t>
+  </si>
+  <si>
+    <t>User click on fat or tall than display properly</t>
+  </si>
+  <si>
+    <t>Not display tall or fat</t>
+  </si>
+  <si>
+    <t>1.Need to hold button activate</t>
+  </si>
+  <si>
+    <t>Hold button should be activated</t>
+  </si>
+  <si>
+    <t>Not activated</t>
+  </si>
+  <si>
+    <t>1.Amprove my hero selection functionality</t>
+  </si>
+  <si>
+    <t>Select hero and print or display on screen</t>
+  </si>
+  <si>
+    <t>selected but not display</t>
+  </si>
+  <si>
+    <t>1.Amprove state  selection functionality</t>
+  </si>
+  <si>
+    <t>Select state and print or display on screen</t>
+  </si>
+  <si>
+    <t>1.Language selection option needed</t>
+  </si>
+  <si>
+    <t>language should be understandable</t>
+  </si>
+  <si>
+    <t>language does not realiable</t>
+  </si>
+  <si>
+    <t>1.At a time only one radio button selected</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>At a time only one radio button selected</t>
+  </si>
+  <si>
+    <t>both radio button are selected</t>
+  </si>
+  <si>
+    <t>1.Put proper link in go to home page option
+2. Nedd to open two to more windows are open
+3.other functionality are also need to be improve</t>
+  </si>
+  <si>
+    <t>Open home page when click on goto home page option, and multiple window functionality should be open two to more windows</t>
+  </si>
+  <si>
+    <t>not work proper</t>
+  </si>
+  <si>
+    <t>1.Hover effect need to clickable</t>
+  </si>
+  <si>
+    <t>Generate hover effect and it should be clicable</t>
+  </si>
+  <si>
+    <t>Not clickable</t>
+  </si>
+  <si>
+    <t>not generate hover effect, not clickable</t>
+  </si>
+  <si>
+    <t>1.Make some fields dynamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some table content should be dynamic </t>
+  </si>
+  <si>
+    <t>Static conent</t>
+  </si>
+  <si>
+    <t>1.Make pagination properly</t>
+  </si>
+  <si>
+    <t>Make pagination properly</t>
+  </si>
+  <si>
+    <t>pagination not work properly</t>
+  </si>
+  <si>
+    <t>1.Make calender responsive and time zone make to proper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Date and time should be display current </t>
+  </si>
+  <si>
+    <t>Calender and date time picker not responsive</t>
+  </si>
+  <si>
+    <t>1.Make logo clickable</t>
+  </si>
+  <si>
+    <t>1.Time logo should be clickable</t>
+  </si>
+  <si>
+    <t>Time logo not clickable</t>
+  </si>
+  <si>
+    <t>validation error</t>
+  </si>
+  <si>
+    <t>1.Put proper validation for inputs</t>
+  </si>
+  <si>
+    <t>Validation not generate proper</t>
+  </si>
+  <si>
+    <t>1.Attached file need to be upload</t>
+  </si>
+  <si>
+    <t>1.Attached file should be upload</t>
+  </si>
+  <si>
+    <t>Attached file is not uploaded</t>
+  </si>
+  <si>
+    <t>1.Share option functionality need to be in working condition</t>
+  </si>
+  <si>
+    <t>1.Share option functionality should be working for other social media</t>
+  </si>
+  <si>
+    <t>Share option is not working</t>
+  </si>
+  <si>
+    <t>1.Only one side provide enroll subject option</t>
+  </si>
+  <si>
+    <t>UI error</t>
+  </si>
+  <si>
+    <t>1.Only one side should be available this option</t>
+  </si>
+  <si>
+    <t>Top and down both side option is available</t>
+  </si>
+  <si>
+    <t>Check share option-&gt; selenium java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Make UI proper </t>
+  </si>
+  <si>
+    <t>1.Make design proper</t>
+  </si>
+  <si>
+    <t>Designing is not proper</t>
+  </si>
+  <si>
+    <t>1.Add some information about courses</t>
+  </si>
+  <si>
+    <t>Put more content for this specific course</t>
+  </si>
+  <si>
+    <t>No any data display</t>
+  </si>
+  <si>
+    <t>1.Improve server</t>
+  </si>
+  <si>
+    <t>Server error</t>
+  </si>
+  <si>
+    <t>Take more time</t>
+  </si>
+  <si>
+    <t>1.Add some more benefits for student</t>
+  </si>
+  <si>
+    <t>Must be generate serviceId</t>
+  </si>
+  <si>
+    <t>Validation error</t>
+  </si>
+  <si>
+    <t>Not generate proper validation</t>
+  </si>
+  <si>
+    <t>1.Put proper link of this page</t>
+  </si>
+  <si>
+    <t>Improve server</t>
+  </si>
+  <si>
+    <t>Add more services without generatr serviceid</t>
+  </si>
+  <si>
+    <t>Put proper validation for inputs</t>
+  </si>
+  <si>
+    <t>Put link of this page</t>
+  </si>
+  <si>
+    <t>Not open this page</t>
+  </si>
+  <si>
+    <t>1.Put proper link</t>
+  </si>
+  <si>
+    <t>1.Put closeing functionality</t>
+  </si>
+  <si>
+    <t>Not provided closing functionality</t>
+  </si>
+  <si>
+    <t>1.Put delete option</t>
+  </si>
+  <si>
+    <t>Close functionality should be added</t>
+  </si>
+  <si>
+    <t>Delete functionality should be added</t>
+  </si>
+  <si>
+    <t>Not providing delete functionality</t>
+  </si>
+  <si>
+    <t>1.Put go back option</t>
+  </si>
+  <si>
+    <t>Go back option should be added</t>
+  </si>
+  <si>
+    <t>Not providing go back option</t>
+  </si>
+  <si>
+    <t>1.Nework need to be improve</t>
+  </si>
+  <si>
+    <t>Network should be improve</t>
+  </si>
+  <si>
+    <t>Take more time to load</t>
+  </si>
+  <si>
+    <t>1.Make logo effective</t>
+  </si>
+  <si>
+    <t>Funcionality</t>
+  </si>
+  <si>
+    <t>Logo should be clickable</t>
   </si>
 </sst>
 </file>
@@ -2879,7 +3194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2914,6 +3229,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF34A853"/>
         <bgColor rgb="FF34A853"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3014,7 +3335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3049,6 +3370,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3070,25 +3395,22 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3431,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243:A252"/>
+    <sheetView topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,11 +3776,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3593,11 +3915,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -3666,11 +3988,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3772,11 +4094,11 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -4516,11 +4838,11 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="20"/>
     </row>
     <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
@@ -4600,11 +4922,11 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B108" s="17"/>
-      <c r="C108" s="18"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="20"/>
     </row>
     <row r="109" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
@@ -4640,11 +4962,11 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="18"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="20"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
@@ -4856,11 +5178,11 @@
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B132" s="17"/>
-      <c r="C132" s="18"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="20"/>
     </row>
     <row r="133" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
@@ -5160,11 +5482,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="16" t="s">
+      <c r="A160" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="B160" s="17"/>
-      <c r="C160" s="18"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="20"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
@@ -5783,11 +6105,11 @@
       </c>
     </row>
     <row r="217" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="19" t="s">
+      <c r="A217" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="21"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="23"/>
     </row>
     <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
@@ -5845,11 +6167,11 @@
       </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="19" t="s">
+      <c r="A223" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="B223" s="20"/>
-      <c r="C223" s="21"/>
+      <c r="B223" s="22"/>
+      <c r="C223" s="23"/>
     </row>
     <row r="224" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
@@ -5918,10 +6240,11 @@
       </c>
     </row>
     <row r="230" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B230" s="22" t="s">
+      <c r="A230" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="C230" s="22"/>
+      <c r="B230" s="24"/>
+      <c r="C230" s="24"/>
     </row>
     <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A231">
@@ -6012,11 +6335,11 @@
       </c>
     </row>
     <row r="239" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="16" t="s">
+      <c r="A239" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="B239" s="17"/>
-      <c r="C239" s="18"/>
+      <c r="B239" s="19"/>
+      <c r="C239" s="20"/>
     </row>
     <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A240">
@@ -6041,11 +6364,11 @@
       </c>
     </row>
     <row r="242" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="16" t="s">
+      <c r="A242" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="B242" s="17"/>
-      <c r="C242" s="18"/>
+      <c r="B242" s="19"/>
+      <c r="C242" s="20"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
@@ -6158,12 +6481,17 @@
       </c>
     </row>
     <row r="253" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="16"/>
-      <c r="B253" s="17"/>
-      <c r="C253" s="18"/>
+      <c r="A253" s="18"/>
+      <c r="B253" s="19"/>
+      <c r="C253" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A100:C100"/>
     <mergeCell ref="A253:C253"/>
     <mergeCell ref="A160:C160"/>
     <mergeCell ref="A108:C108"/>
@@ -6171,14 +6499,9 @@
     <mergeCell ref="A132:C132"/>
     <mergeCell ref="A217:C217"/>
     <mergeCell ref="A223:C223"/>
-    <mergeCell ref="B230:C230"/>
     <mergeCell ref="A239:C239"/>
     <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A230:C230"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6189,8 +6512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7050,7 +7373,7 @@
       <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>125</v>
       </c>
       <c r="B29" s="4">
@@ -7704,7 +8027,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>144</v>
       </c>
       <c r="B50" s="5">
@@ -7768,7 +8091,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>146</v>
       </c>
       <c r="B52" s="5">
@@ -8441,7 +8764,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="6">
         <v>167</v>
       </c>
       <c r="B73" s="9">
@@ -8505,7 +8828,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="6">
         <v>169</v>
       </c>
       <c r="B75" s="9">
@@ -8601,10 +8924,10 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>172</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="5">
         <v>79</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -8665,10 +8988,10 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>174</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="5">
         <v>81</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -8921,10 +9244,10 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>182</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="5">
         <v>89</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -9023,8 +9346,8 @@
       <c r="B91" s="5">
         <v>92</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>428</v>
+      <c r="C91" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>157</v>
@@ -9610,7 +9933,7 @@
       <c r="A110" s="11">
         <v>204</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="11">
         <v>114</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -9926,7 +10249,7 @@
       <c r="A121" s="10">
         <v>403</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
         <v>133</v>
       </c>
       <c r="C121" s="15" t="s">
@@ -10054,7 +10377,7 @@
       <c r="A125" s="10">
         <v>407</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="4">
         <v>137</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -10147,14 +10470,14 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="7">
+      <c r="A128" s="10">
         <v>410</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="4">
         <v>140</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>191</v>
+        <v>975</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>190</v>
@@ -10246,7 +10569,7 @@
       <c r="A131" s="10">
         <v>413</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="4">
         <v>143</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -10342,7 +10665,7 @@
       <c r="A134" s="10">
         <v>416</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="4">
         <v>146</v>
       </c>
       <c r="C134" s="5" t="s">
@@ -10438,7 +10761,7 @@
       <c r="A137" s="10">
         <v>419</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="4">
         <v>149</v>
       </c>
       <c r="C137" s="5" t="s">
@@ -10484,7 +10807,7 @@
       <c r="A139" s="10">
         <v>501</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="4">
         <v>151</v>
       </c>
       <c r="C139" s="5" t="s">
@@ -10580,7 +10903,7 @@
       <c r="A142" s="4">
         <v>504</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="4">
         <v>154</v>
       </c>
       <c r="C142" s="5" t="s">
@@ -10705,10 +11028,10 @@
       </c>
     </row>
     <row r="146" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="4">
         <v>508</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="4">
         <v>158</v>
       </c>
       <c r="C146" s="5" t="s">
@@ -10740,7 +11063,7 @@
       <c r="A147" s="4">
         <v>509</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="4">
         <v>159</v>
       </c>
       <c r="C147" s="5" t="s">
@@ -10804,7 +11127,7 @@
       <c r="A149" s="4">
         <v>511</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="4">
         <v>161</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -10868,7 +11191,7 @@
       <c r="A151" s="4">
         <v>513</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="4">
         <v>163</v>
       </c>
       <c r="C151" s="5" t="s">
@@ -10900,7 +11223,7 @@
       <c r="A152" s="4">
         <v>514</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="4">
         <v>164</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -10964,7 +11287,7 @@
       <c r="A154" s="4">
         <v>516</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="4">
         <v>166</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -11028,7 +11351,7 @@
       <c r="A156" s="4">
         <v>518</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="4">
         <v>168</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -11060,7 +11383,7 @@
       <c r="A157" s="4">
         <v>519</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="4">
         <v>169</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -11124,7 +11447,7 @@
       <c r="A159" s="4">
         <v>521</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="4">
         <v>171</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -11156,7 +11479,7 @@
       <c r="A160" s="4">
         <v>524</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="4">
         <v>172</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -11188,7 +11511,7 @@
       <c r="A161" s="4">
         <v>525</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="4">
         <v>173</v>
       </c>
       <c r="C161" s="5" t="s">
@@ -11217,7 +11540,7 @@
       </c>
     </row>
     <row r="162" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
+      <c r="A162" s="6">
         <v>526</v>
       </c>
       <c r="B162">
@@ -11252,7 +11575,7 @@
       <c r="A163" s="4">
         <v>527</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="4">
         <v>175</v>
       </c>
       <c r="C163" s="5" t="s">
@@ -11284,7 +11607,7 @@
       <c r="A164" s="4">
         <v>528</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="4">
         <v>176</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -11316,7 +11639,7 @@
       <c r="A165" s="4">
         <v>529</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="4">
         <v>177</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -11455,7 +11778,7 @@
       </c>
     </row>
     <row r="170" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="7">
+      <c r="A170" s="10">
         <v>604</v>
       </c>
       <c r="B170" s="4">
@@ -11647,7 +11970,7 @@
       </c>
     </row>
     <row r="176" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A176" s="7">
+      <c r="A176" s="10">
         <v>610</v>
       </c>
       <c r="B176" s="4">
@@ -11775,7 +12098,7 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A180" s="7">
+      <c r="A180" s="10">
         <v>614</v>
       </c>
       <c r="B180" s="4">
@@ -11806,8 +12129,8 @@
         <v>494</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A181" s="7">
+    <row r="181" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="10">
         <v>615</v>
       </c>
       <c r="B181" s="4">
@@ -11999,7 +12322,7 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A187" s="7">
+      <c r="A187" s="10">
         <v>621</v>
       </c>
       <c r="B187" s="4">
@@ -12031,7 +12354,7 @@
       </c>
     </row>
     <row r="188" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A188" s="7">
+      <c r="A188" s="10">
         <v>622</v>
       </c>
       <c r="B188" s="4">
@@ -12095,7 +12418,7 @@
       </c>
     </row>
     <row r="190" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A190" s="7">
+      <c r="A190" s="10">
         <v>624</v>
       </c>
       <c r="B190" s="4">
@@ -12191,7 +12514,7 @@
       </c>
     </row>
     <row r="193" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A193" s="7">
+      <c r="A193" s="10">
         <v>627</v>
       </c>
       <c r="B193" s="4">
@@ -12319,7 +12642,7 @@
       </c>
     </row>
     <row r="197" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A197" s="7">
+      <c r="A197" s="10">
         <v>631</v>
       </c>
       <c r="B197" s="4">
@@ -12383,7 +12706,7 @@
       </c>
     </row>
     <row r="199" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A199" s="7">
+      <c r="A199" s="10">
         <v>633</v>
       </c>
       <c r="B199" s="4">
@@ -12415,7 +12738,7 @@
       </c>
     </row>
     <row r="200" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A200" s="7">
+      <c r="A200" s="10">
         <v>634</v>
       </c>
       <c r="B200" s="4">
@@ -12479,7 +12802,7 @@
       </c>
     </row>
     <row r="202" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A202" s="7">
+      <c r="A202" s="10">
         <v>636</v>
       </c>
       <c r="B202" s="4">
@@ -13151,18 +13474,18 @@
       </c>
     </row>
     <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="23" t="s">
+      <c r="A223" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="B223" s="24"/>
-      <c r="C223" s="24"/>
-      <c r="D223" s="24"/>
-      <c r="E223" s="24"/>
-      <c r="F223" s="24"/>
-      <c r="G223" s="24"/>
-      <c r="H223" s="24"/>
-      <c r="I223" s="24"/>
-      <c r="J223" s="24"/>
+      <c r="B223" s="28"/>
+      <c r="C223" s="28"/>
+      <c r="D223" s="28"/>
+      <c r="E223" s="28"/>
+      <c r="F223" s="28"/>
+      <c r="G223" s="28"/>
+      <c r="H223" s="28"/>
+      <c r="I223" s="28"/>
+      <c r="J223" s="28"/>
     </row>
     <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
@@ -13325,18 +13648,18 @@
       </c>
     </row>
     <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="23" t="s">
+      <c r="A229" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="B229" s="24"/>
-      <c r="C229" s="24"/>
-      <c r="D229" s="24"/>
-      <c r="E229" s="24"/>
-      <c r="F229" s="24"/>
-      <c r="G229" s="24"/>
-      <c r="H229" s="24"/>
-      <c r="I229" s="24"/>
-      <c r="J229" s="24"/>
+      <c r="B229" s="28"/>
+      <c r="C229" s="28"/>
+      <c r="D229" s="28"/>
+      <c r="E229" s="28"/>
+      <c r="F229" s="28"/>
+      <c r="G229" s="28"/>
+      <c r="H229" s="28"/>
+      <c r="I229" s="28"/>
+      <c r="J229" s="28"/>
     </row>
     <row r="230" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
@@ -13371,16 +13694,16 @@
       </c>
     </row>
     <row r="231" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A231" s="10">
+      <c r="A231" s="7">
         <v>802</v>
       </c>
-      <c r="B231" s="10">
+      <c r="B231" s="7">
         <v>591.20000000000005</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="D231" s="11" t="s">
+      <c r="D231" s="12" t="s">
         <v>363</v>
       </c>
       <c r="E231" s="9" t="s">
@@ -13447,23 +13770,23 @@
       <c r="D233" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E233" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="F233" s="9" t="s">
+      <c r="E233" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F233" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="G233" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="H233" s="9" t="s">
+      <c r="G233" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H233" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="I233" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="J233" s="9" t="s">
-        <v>432</v>
+      <c r="I233" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="J233" s="5" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -13499,7 +13822,7 @@
       </c>
     </row>
     <row r="235" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A235" s="10">
+      <c r="A235" s="7">
         <v>806</v>
       </c>
       <c r="B235" s="7">
@@ -13531,18 +13854,18 @@
       </c>
     </row>
     <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A236" s="22" t="s">
+      <c r="A236" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="B236" s="22"/>
-      <c r="C236" s="22"/>
-      <c r="D236" s="22"/>
-      <c r="E236" s="22"/>
-      <c r="F236" s="22"/>
-      <c r="G236" s="22"/>
-      <c r="H236" s="22"/>
-      <c r="I236" s="22"/>
-      <c r="J236" s="22"/>
+      <c r="B236" s="24"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
+      <c r="F236" s="24"/>
+      <c r="G236" s="24"/>
+      <c r="H236" s="24"/>
+      <c r="I236" s="24"/>
+      <c r="J236" s="24"/>
     </row>
     <row r="237" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A237">
@@ -13957,7 +14280,7 @@
       </c>
     </row>
     <row r="251" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A251" s="4">
+      <c r="A251" s="6">
         <v>1103</v>
       </c>
       <c r="B251">
@@ -14021,7 +14344,7 @@
       </c>
     </row>
     <row r="253" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A253" s="4">
+      <c r="A253" s="6">
         <v>1105</v>
       </c>
       <c r="B253">
@@ -14085,7 +14408,7 @@
       </c>
     </row>
     <row r="255" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A255" s="4">
+      <c r="A255" s="6">
         <v>1107</v>
       </c>
       <c r="B255">
@@ -14149,7 +14472,7 @@
       </c>
     </row>
     <row r="257" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A257" s="4">
+      <c r="A257" s="6">
         <v>1109</v>
       </c>
       <c r="B257">
@@ -14213,7 +14536,7 @@
       </c>
     </row>
     <row r="259" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A259" s="4">
+      <c r="A259" s="6">
         <v>1111</v>
       </c>
       <c r="B259">
@@ -14246,6 +14569,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A229:J229"/>
+    <mergeCell ref="A245:J245"/>
+    <mergeCell ref="A223:J223"/>
+    <mergeCell ref="A236:J236"/>
+    <mergeCell ref="A248:J248"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A28:J28"/>
@@ -14255,11 +14583,6 @@
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="A114:J114"/>
     <mergeCell ref="A118:J118"/>
-    <mergeCell ref="A229:J229"/>
-    <mergeCell ref="A245:J245"/>
-    <mergeCell ref="A223:J223"/>
-    <mergeCell ref="A236:J236"/>
-    <mergeCell ref="A248:J248"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14280,14 +14603,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD1C258-B84E-4A95-B0A4-9BB1AA1A4F46}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
@@ -14304,49 +14628,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>873</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>875</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>876</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="30" t="s">
         <v>877</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="30" t="s">
         <v>878</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
         <v>879</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="30" t="s">
         <v>880</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="30" t="s">
         <v>882</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="30" t="s">
         <v>883</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="30" t="s">
         <v>884</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="30" t="s">
         <v>885</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="30" t="s">
         <v>886</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="30" t="s">
         <v>887</v>
       </c>
     </row>
@@ -14398,7 +14722,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4">
@@ -14429,7 +14753,7 @@
         <v>890</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>897</v>
@@ -14445,7 +14769,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4">
@@ -14470,16 +14794,16 @@
         <v>889</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>892</v>
@@ -14492,7 +14816,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4">
@@ -14508,34 +14832,3084 @@
         <v>30</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>125</v>
+      </c>
+      <c r="C6" s="5">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M6" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>129</v>
+      </c>
+      <c r="C7" s="4">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>133</v>
+      </c>
+      <c r="C9" s="4">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J9" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="K5" s="29" t="s">
-        <v>904</v>
-      </c>
-      <c r="L5" s="29" t="s">
+      <c r="K9" s="11" t="s">
+        <v>912</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>135</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>139</v>
+      </c>
+      <c r="C11" s="4">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>142</v>
+      </c>
+      <c r="C12" s="5">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>143</v>
+      </c>
+      <c r="C13" s="5">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>144</v>
+      </c>
+      <c r="C14" s="5">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>146</v>
+      </c>
+      <c r="C15" s="5">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>150</v>
+      </c>
+      <c r="C16" s="5">
+        <v>58</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>151</v>
+      </c>
+      <c r="C17" s="5">
+        <v>59</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>157</v>
+      </c>
+      <c r="C18" s="5">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>161</v>
+      </c>
+      <c r="C19" s="5">
+        <v>69</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>165</v>
+      </c>
+      <c r="C20" s="5">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>170</v>
+      </c>
+      <c r="C21" s="5">
+        <v>78</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>172</v>
+      </c>
+      <c r="C22" s="5">
+        <v>79</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>174</v>
+      </c>
+      <c r="C23" s="5">
+        <v>81</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>176</v>
+      </c>
+      <c r="C24" s="5">
+        <v>83</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>179</v>
+      </c>
+      <c r="C25" s="5">
+        <v>86</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>182</v>
+      </c>
+      <c r="C26" s="5">
+        <v>89</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>183</v>
+      </c>
+      <c r="C27" s="5">
+        <v>90</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>185</v>
+      </c>
+      <c r="C28" s="5">
+        <v>92</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>189</v>
+      </c>
+      <c r="C29" s="5">
+        <v>96</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>191</v>
+      </c>
+      <c r="C30" s="5">
+        <v>98</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>961</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>194</v>
+      </c>
+      <c r="C31" s="5">
+        <v>101</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="M5" t="s">
+      <c r="G31" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="M31" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="N5" t="s">
-        <v>435</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N31" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>197</v>
+      </c>
+      <c r="C32" s="5">
+        <v>104</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>204</v>
+      </c>
+      <c r="C33" s="11">
+        <v>114</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>302</v>
+      </c>
+      <c r="C34" s="11">
+        <v>122</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>403</v>
+      </c>
+      <c r="C35" s="4">
+        <v>133</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>407</v>
+      </c>
+      <c r="C36" s="4">
+        <v>137</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <v>410</v>
+      </c>
+      <c r="C37" s="4">
+        <v>140</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10">
+        <v>413</v>
+      </c>
+      <c r="C38" s="4">
+        <v>143</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10">
+        <v>416</v>
+      </c>
+      <c r="C39" s="4">
+        <v>146</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10">
+        <v>419</v>
+      </c>
+      <c r="C40" s="4">
+        <v>149</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10">
+        <v>501</v>
+      </c>
+      <c r="C41" s="4">
+        <v>151</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>504</v>
+      </c>
+      <c r="C42" s="4">
+        <v>154</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>508</v>
+      </c>
+      <c r="C43" s="4">
+        <v>158</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>509</v>
+      </c>
+      <c r="C44" s="4">
+        <v>159</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>511</v>
+      </c>
+      <c r="C45" s="4">
+        <v>161</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>513</v>
+      </c>
+      <c r="C46" s="4">
+        <v>163</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>514</v>
+      </c>
+      <c r="C47" s="4">
+        <v>164</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>516</v>
+      </c>
+      <c r="C48" s="4">
+        <v>166</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>518</v>
+      </c>
+      <c r="C49" s="4">
+        <v>168</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>519</v>
+      </c>
+      <c r="C50" s="4">
+        <v>169</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>521</v>
+      </c>
+      <c r="C51" s="4">
+        <v>171</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>524</v>
+      </c>
+      <c r="C52" s="4">
+        <v>172</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>525</v>
+      </c>
+      <c r="C53" s="4">
+        <v>173</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>981</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>527</v>
+      </c>
+      <c r="C54" s="4">
+        <v>175</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>528</v>
+      </c>
+      <c r="C55" s="4">
+        <v>176</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>529</v>
+      </c>
+      <c r="C56" s="4">
+        <v>177</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>981</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10">
+        <v>604</v>
+      </c>
+      <c r="C57" s="4">
+        <v>533</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10">
+        <v>610</v>
+      </c>
+      <c r="C58" s="4">
+        <v>539</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10">
+        <v>614</v>
+      </c>
+      <c r="C59" s="4">
+        <v>543</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10">
+        <v>615</v>
+      </c>
+      <c r="C60" s="4">
+        <v>543</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10">
+        <v>621</v>
+      </c>
+      <c r="C61" s="4">
+        <v>549</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10">
+        <v>622</v>
+      </c>
+      <c r="C62" s="4">
+        <v>550</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10">
+        <v>624</v>
+      </c>
+      <c r="C63" s="4">
+        <v>552</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10">
+        <v>627</v>
+      </c>
+      <c r="C64" s="4">
+        <v>555</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10">
+        <v>631</v>
+      </c>
+      <c r="C65" s="4">
+        <v>559</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10">
+        <v>633</v>
+      </c>
+      <c r="C66" s="4">
+        <v>561</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10">
+        <v>634</v>
+      </c>
+      <c r="C67" s="4">
+        <v>562</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10">
+        <v>636</v>
+      </c>
+      <c r="C68" s="4">
+        <v>564</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10">
+        <v>804</v>
+      </c>
+      <c r="C69" s="10">
+        <v>593.4</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1101</v>
+      </c>
+      <c r="C70" s="4">
+        <v>801</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O70" s="5" t="s">
         <v>893</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>